--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA003\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B73E38-DBE2-4067-8CB7-B1114E6E48A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB9B62-9E1A-4ED5-A55F-A38F86253BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -1447,6 +1447,14 @@
       </rPr>
       <t>온스타일/</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>개별전송</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>쇼핑엔티/하프클럽(신)/신세계몰(신)/신세계TV쇼핑</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1906,7 +1914,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2070,13 +2078,21 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>62</v>
       </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1">
       <c r="A11" t="s">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA003\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB9B62-9E1A-4ED5-A55F-A38F86253BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D234E5-9EBD-4C8E-A009-DB4BABF0DEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -1171,6 +1171,29 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>사방넷ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>사방넷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PW</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.sabangnet.co.kr/new_home/</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1179,31 +1202,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>프로그램</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 실행 관련 기본위치</t>
+      <t>사방넷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>URL</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C:\RPA\DX\EC\P001\</t>
+    <t>kch@cowellfashion.co.kr</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>사방넷ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>사방넷</t>
+    <r>
+      <t>현업 담당자</t>
     </r>
     <r>
       <rPr>
@@ -1213,14 +1231,83 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>PW</t>
+      <t xml:space="preserve"> 수신</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://www.sabangnet.co.kr/new_home/</t>
-  </si>
-  <si>
+    <t>현업 담당자 참조</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>제외대상</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>attr06</t>
+  </si>
+  <si>
+    <t>cowell2023!!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://sbadmin11.sabangnet.co.kr/#/mall/mall-waybill-transmit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운송장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>송신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> URL</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>[RPA]($MM/$dd)</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1236,108 +1323,9 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kch@cowellfashion.co.kr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>현업 담당자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수신</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>현업 담당자 참조</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>제외대상</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>attr06</t>
-  </si>
-  <si>
-    <t>rpa002_01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cowell2023!!</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://sbadmin11.sabangnet.co.kr/#/mall/mall-waybill-transmit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쇼핑몰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운송장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>송신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> URL</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>[RPA]($MM/$dd)</t>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -1347,16 +1335,23 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사방넷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
+      <t>쇼핑몰운송장송신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 성공</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>[RPA]($MM/$dd)</t>
     </r>
     <r>
       <rPr>
@@ -1366,23 +1361,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>쇼핑몰운송장송신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 성공</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>[RPA]($MM/$dd)</t>
+      <t>사방넷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -1392,25 +1380,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사방넷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>쇼핑몰운송장송신</t>
     </r>
     <r>
@@ -1455,6 +1424,10 @@
   </si>
   <si>
     <t>쇼핑엔티/하프클럽(신)/신세계몰(신)/신세계TV쇼핑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rpa003_01</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1914,7 +1887,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1966,15 +1939,9 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1997,13 +1964,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1">
@@ -2011,13 +1978,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2025,13 +1992,13 @@
         <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1">
@@ -2039,18 +2006,18 @@
         <v>34</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2065,13 +2032,13 @@
         <v>35</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1">
@@ -2079,13 +2046,13 @@
         <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1">
@@ -2181,10 +2148,10 @@
         <v>49</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -2192,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -2242,10 +2209,10 @@
         <v>54</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2270,10 +2237,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA003\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D234E5-9EBD-4C8E-A009-DB4BABF0DEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F82107-FBFB-4150-8C0B-A3D01F0953EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -1423,11 +1423,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>쇼핑엔티/하프클럽(신)/신세계몰(신)/신세계TV쇼핑</t>
+    <t>rpa003_01</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>rpa003_01</t>
+    <t>후순위 개별전송대상</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>티몬/</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>쇼핑엔티/하프클럽(신)/신세계몰(신)/신세계TV쇼핑/SSF SHOP</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1887,7 +1903,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1978,10 +1994,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>67</v>
@@ -2046,10 +2062,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>82</v>
@@ -2059,7 +2075,15 @@
       <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1">
       <c r="A11" t="s">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA003\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F82107-FBFB-4150-8C0B-A3D01F0953EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5C27D-50F4-4113-B779-5119D39A2C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -1444,6 +1444,10 @@
   </si>
   <si>
     <t>쇼핑엔티/하프클럽(신)/신세계몰(신)/신세계TV쇼핑/SSF SHOP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\error.png</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1903,7 +1907,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2143,8 +2147,6 @@
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -2165,6 +2167,12 @@
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA003\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA003-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5C27D-50F4-4113-B779-5119D39A2C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358998FD-5323-457F-A74F-9FF3E7F137B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -1400,21 +1400,6 @@
         <charset val="129"/>
       </rPr>
       <t>실패</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>CJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>온스타일/</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -1907,7 +1892,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1998,10 +1983,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>67</v>
@@ -2051,12 +2036,8 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>74</v>
       </c>
@@ -2066,13 +2047,13 @@
         <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1">
@@ -2080,13 +2061,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1">
@@ -2169,10 +2150,10 @@
         <v>48</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
